--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88291498-683B-4062-90EC-109C955E6CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCFF48-B133-49AF-9FB5-59B542072690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
@@ -454,10 +454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="[$-C0A]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-C0A]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -696,131 +696,65 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="173" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,6 +762,72 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -881,7 +881,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s3089"/>
+                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s3091"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -29929,7 +29929,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29945,44 +29945,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="43" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -29990,7 +29990,7 @@
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8"/>
@@ -30001,12 +30001,12 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30043,13 +30043,13 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="8"/>
@@ -30066,50 +30066,50 @@
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCFF48-B133-49AF-9FB5-59B542072690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F0AE0-90A0-41E0-8843-89F22A476E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
@@ -399,19 +399,6 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>UNNA ENERGIA - ENEL</t>
-  </si>
-  <si>
-    <t>ENEL</t>
-  </si>
-  <si>
-    <t>BOLETA DE VENTA DEL GAS NATURAL SECO DE UNNA LOTE IV A ENEL</t>
-  </si>
-  <si>
-    <t>Versión
-01</t>
-  </si>
-  <si>
     <t>Cuadro N°1. Resumen de Ventas</t>
   </si>
   <si>
@@ -434,9 +421,6 @@
     <t>MMBTU</t>
   </si>
   <si>
-    <t>UNNA ENERGIA S.A</t>
-  </si>
-  <si>
     <t>{{Fecha}}</t>
   </si>
   <si>
@@ -447,6 +431,21 @@
   </si>
   <si>
     <t>{{Mmbtu}}</t>
+  </si>
+  <si>
+    <t>{{RazonSocial}}</t>
+  </si>
+  <si>
+    <t>{{Abreviatura}}</t>
+  </si>
+  <si>
+    <t>{{NombreReporte}}</t>
+  </si>
+  <si>
+    <t>{{Version}}</t>
+  </si>
+  <si>
+    <t>{{Compania}}</t>
   </si>
 </sst>
 </file>
@@ -459,11 +458,18 @@
     <numFmt numFmtId="166" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-C0A]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -697,61 +703,55 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,71 +763,80 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -881,7 +890,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s3091"/>
+                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s3097"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -29929,7 +29938,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29945,44 +29954,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="36" t="s">
-        <v>3</v>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="35" t="s">
+        <v>14</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="45" t="s">
-        <v>1</v>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="21" t="s">
-        <v>4</v>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -29990,8 +29999,8 @@
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>13</v>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -30001,12 +30010,12 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="48" t="s">
-        <v>5</v>
+      <c r="B7" s="47" t="s">
+        <v>1</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30016,112 +30025,112 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="C9" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>10</v>
+      <c r="D10" s="11" t="s">
+        <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>11</v>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="C11" s="24" t="s">
-        <v>14</v>
+      <c r="C11" s="22" t="s">
+        <v>9</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>15</v>
+      <c r="D11" s="23" t="s">
+        <v>10</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>16</v>
+      <c r="E11" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>2</v>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
+        <v>13</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F0AE0-90A0-41E0-8843-89F22A476E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A2F4C-A5ED-4B13-B1A5-E5FFDA000D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLETA GNS" sheetId="3" r:id="rId1"/>
@@ -763,6 +763,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,12 +838,6 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,15 +867,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:colOff>436684</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>124558</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>944880</xdr:colOff>
+          <xdr:colOff>1267264</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>69669</xdr:rowOff>
+          <xdr:rowOff>3727</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -890,7 +890,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s3097"/>
+                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s3098"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -903,8 +903,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="853440" y="3253740"/>
-              <a:ext cx="1600200" cy="1045029"/>
+              <a:off x="1191357" y="3223846"/>
+              <a:ext cx="1621888" cy="1080785"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -28006,6 +28006,7 @@
       <sheetName val="MPG_KERO"/>
       <sheetName val="MPG_D-2"/>
       <sheetName val="MPG_D-2_EXP_"/>
+      <sheetName val="MPG ILO 06.04.06"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -28247,6 +28248,7 @@
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -29937,7 +29939,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
@@ -29954,33 +29956,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
@@ -29988,10 +29990,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -30010,12 +30012,12 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30034,7 +30036,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -30048,7 +30050,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="49"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -30062,7 +30064,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -30109,16 +30111,16 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A2F4C-A5ED-4B13-B1A5-E5FFDA000D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A642FE-BEDA-449C-BC45-18693FEDF315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLETA GNS" sheetId="3" r:id="rId1"/>
@@ -862,63 +862,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>436684</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>124558</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1267264</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>3727</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Imagen 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s3098"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1191357" y="3223846"/>
-              <a:ext cx="1621888" cy="1080785"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:effectLst>
-              <a:softEdge rad="31750"/>
-            </a:effectLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -946,7 +889,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -974,6 +917,56 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>424962</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512885</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A01BF3D-2828-4C72-BE91-23593155885E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1179635" y="3839309"/>
+          <a:ext cx="879231" cy="522526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -29939,8 +29932,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A642FE-BEDA-449C-BC45-18693FEDF315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E043D168-5309-4F5F-B467-B4A6EF63A189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
@@ -309,90 +309,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jean Cabrera</author>
-  </authors>
-  <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{433A82E3-90B4-4B34-B4F2-C81BF50D8D0D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean Cabrera:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fecha de dia operativo anterior</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{65972D23-26E2-47DD-A243-F3E631CCF178}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean Cabrera:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Valor ingresado por Fiscalizador Enel en el segundo registro
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{A8DABA70-9F31-41BB-B8B8-7A4440D1CE76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean Cabrera:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dato ingresado por Fiscalizador ENEL en el primer registro
-Considerar 2 decimales</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
@@ -458,11 +374,18 @@
     <numFmt numFmtId="166" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-C0A]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -518,19 +441,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
@@ -553,7 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,139 +613,134 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -849,6 +754,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDAEEF3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -865,15 +775,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91441</xdr:colOff>
+      <xdr:colOff>76788</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>82062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>681171</xdr:colOff>
+      <xdr:colOff>564174</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>139348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -901,8 +811,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="91441" y="236220"/>
-          <a:ext cx="1328870" cy="510540"/>
+          <a:off x="76788" y="279889"/>
+          <a:ext cx="1154136" cy="438286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,16 +833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>424962</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109905</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>249116</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>512885</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60931</xdr:rowOff>
+      <xdr:colOff>1128347</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -961,7 +871,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1179635" y="3839309"/>
+          <a:off x="1582616" y="3707424"/>
           <a:ext cx="879231" cy="522526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29926,67 +29836,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64018E21-F6C9-47F7-A7F4-C47DC41880A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64018E21-F6C9-47F7-A7F4-C47DC41880A9}">
   <sheetPr codeName="Hoja28">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="7.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="16.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="19" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -29994,7 +29901,7 @@
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="8"/>
@@ -30005,12 +29912,12 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30019,118 +29926,116 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="30"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:F2"/>
@@ -30140,7 +30045,6 @@
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="11" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E043D168-5309-4F5F-B467-B4A6EF63A189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C01A8-C1F4-4188-8386-BD1333E5459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
@@ -781,7 +781,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>564174</xdr:colOff>
+      <xdr:colOff>476251</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>139348</xdr:rowOff>
     </xdr:to>
@@ -29843,14 +29843,14 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="16.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="18.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="11.5546875" style="2"/>
   </cols>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C01A8-C1F4-4188-8386-BD1333E5459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D6112-12B3-47A3-BF03-56ED223E74E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLETA GNS" sheetId="3" r:id="rId1"/>
@@ -619,7 +619,7 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -743,6 +743,12 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,56 +833,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>249116</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1128347</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119546</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A01BF3D-2828-4C72-BE91-23593155885E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1582616" y="3707424"/>
-          <a:ext cx="879231" cy="522526"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -29842,8 +29798,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29977,37 +29933,38 @@
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
+      <c r="C14" s="52"/>
       <c r="E14" s="18"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="51"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="51"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="51"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="51"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="51"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeVentaGns.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D6112-12B3-47A3-BF03-56ED223E74E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D79C5F8-CEED-47F9-8BE7-969518D21C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD07AB86-B670-4CF7-9994-50DE2D7B8921}"/>
   </bookViews>
@@ -156,7 +156,7 @@
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA" localSheetId="0">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA GNS'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA GNS'!$A$1:$G$22</definedName>
     <definedName name="_xlnm.Database" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB" localSheetId="0">#REF!</definedName>
@@ -468,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -610,6 +610,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
@@ -619,7 +632,7 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -658,9 +671,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,6 +695,12 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,11 +759,29 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -29796,211 +29830,233 @@
   <sheetPr codeName="Hoja28">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="18.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="3.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="18.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="40"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="C14" s="52"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="51"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="51"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="51"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="51"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="51"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="27" t="s">
+    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C1:F3"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="11" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="82" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
